--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arcadiso365-my.sharepoint.com/personal/deepak_reji_arcadis_com/Documents/Desktop/Projection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5131656A-D0C6-4C73-BD1D-DB0AC903E8E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="8_{5131656A-D0C6-4C73-BD1D-DB0AC903E8E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{28D242D4-71F8-4AF0-A6D6-6C4C288CAD84}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E3717D45-3D2E-43C2-BAFD-B80705E87649}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>James</t>
   </si>
@@ -107,13 +107,73 @@
   </si>
   <si>
     <t>Movie2</t>
+  </si>
+  <si>
+    <t>tokens</t>
+  </si>
+  <si>
+    <t>model a</t>
+  </si>
+  <si>
+    <t>bert</t>
+  </si>
+  <si>
+    <t>features/dimension</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this </t>
+  </si>
+  <si>
+    <t>funky</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>[PAD]</t>
+  </si>
+  <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>this is a cat</t>
+  </si>
+  <si>
+    <t>This is a dog</t>
+  </si>
+  <si>
+    <t>[SEP]</t>
+  </si>
+  <si>
+    <t>THIS</t>
+  </si>
+  <si>
+    <t>IS</t>
+  </si>
+  <si>
+    <t>[MASK]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,16 +181,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -138,12 +211,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05B0104-519F-443A-9ED2-73BDD2F206A0}">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25:Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -472,7 +566,7 @@
     <col min="16" max="16" width="8.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>7</v>
       </c>
@@ -519,459 +613,587 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <f ca="1">RAND()</f>
-        <v>0.60630522745376436</v>
-      </c>
-      <c r="C2">
+        <v>3.1335224828499264E-2</v>
+      </c>
+      <c r="C2" s="4">
         <f t="shared" ref="C2:P2" ca="1" si="0">RAND()</f>
-        <v>0.67108831287188286</v>
-      </c>
-      <c r="D2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.99576245218471438</v>
-      </c>
-      <c r="E2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.63459058193663842</v>
-      </c>
-      <c r="F2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.86775839843680913</v>
-      </c>
-      <c r="G2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.83337151775986207</v>
-      </c>
-      <c r="H2">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.2827407075318402E-2</v>
-      </c>
-      <c r="I2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.72647529884665274</v>
-      </c>
-      <c r="J2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.75203709301234511</v>
-      </c>
-      <c r="K2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.97729405959274362</v>
-      </c>
-      <c r="L2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.11682216486831432</v>
-      </c>
-      <c r="M2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.96627669978539443</v>
-      </c>
-      <c r="N2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.10360100389283855</v>
-      </c>
-      <c r="O2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.82500221441872346</v>
-      </c>
-      <c r="P2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.55109130483224211</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+        <v>0.23954179347010318</v>
+      </c>
+      <c r="D2" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.49393492025577346</v>
+      </c>
+      <c r="E2" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.35317147303555507</v>
+      </c>
+      <c r="F2" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.72006688317658063</v>
+      </c>
+      <c r="G2" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.3697561916338428E-2</v>
+      </c>
+      <c r="H2" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.3221996416619306</v>
+      </c>
+      <c r="I2" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.30357124780136191</v>
+      </c>
+      <c r="J2" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.8515706263646271</v>
+      </c>
+      <c r="K2" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.50919293429442036</v>
+      </c>
+      <c r="L2" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.39860584029229451</v>
+      </c>
+      <c r="M2" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.3776062563812981E-2</v>
+      </c>
+      <c r="N2" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.97095817058570422</v>
+      </c>
+      <c r="O2" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.18144162431747346</v>
+      </c>
+      <c r="P2" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.24069779715884521</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="6">
         <f t="shared" ref="B3:P8" ca="1" si="1">RAND()</f>
-        <v>0.7203009520366398</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.96064199317417265</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.25107405353729151</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.34257176847894721</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.32876063652055176</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.73808798645635321</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.57659739487730088</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.6725108565848856E-2</v>
-      </c>
-      <c r="J3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.85842707142571739</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.72142397082517717</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.88796986708889436</v>
-      </c>
-      <c r="M3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.90370924829351873</v>
-      </c>
-      <c r="N3">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.3007531751436705E-3</v>
-      </c>
-      <c r="O3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.61488694999136839</v>
-      </c>
-      <c r="P3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.39121238857676299</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+        <v>0.90946726769093589</v>
+      </c>
+      <c r="C3" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.36335605035832974</v>
+      </c>
+      <c r="D3" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.30844665463907206</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.77721602785436261</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.85170859126958565</v>
+      </c>
+      <c r="G3" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.90678490557681324</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.77327167685398512</v>
+      </c>
+      <c r="I3" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.7943973887743504</v>
+      </c>
+      <c r="J3" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.56768595199308503</v>
+      </c>
+      <c r="K3" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.88147293411687444</v>
+      </c>
+      <c r="L3" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>9.4569120603743229E-2</v>
+      </c>
+      <c r="M3" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.22756883432532038</v>
+      </c>
+      <c r="N3" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.42136413169677345</v>
+      </c>
+      <c r="O3" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.75203895676085963</v>
+      </c>
+      <c r="P3" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.93225382030769055</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49866750175321994</v>
+        <v>0.98449212115392115</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39758619760446445</v>
+        <v>0.13394283141245522</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11202076453033749</v>
+        <v>0.35216343774233805</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51414669817430547</v>
+        <v>0.46504618378728679</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76640613202334806</v>
+        <v>0.97208838720476531</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50334656046408943</v>
+        <v>8.0263540034127279E-2</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86676444059515823</v>
+        <v>0.69359565648769805</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7904899054416139</v>
+        <v>0.4757937352200825</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="1"/>
-        <v>3.1620706908486174E-2</v>
+        <v>0.6512669473519076</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32188271424307491</v>
+        <v>0.56956745527231067</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75261279968762085</v>
+        <v>0.30264592909464172</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71896026719116557</v>
+        <v>0.19318194271705402</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53394198981119501</v>
+        <v>0.10053872517469964</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61703401546187775</v>
+        <v>0.97166672271681087</v>
       </c>
       <c r="P4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24734839514537943</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+        <v>0.67025516369761873</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4642834962268036E-2</v>
+        <v>4.2660038988176052E-2</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86115499602071743</v>
+        <v>9.0998670455504804E-2</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49615281749576512</v>
+        <v>0.21421254666387024</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43333856661688963</v>
+        <v>0.5317080186772809</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35886940276710644</v>
+        <v>0.20612059117635206</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86331459098676844</v>
+        <v>0.75947762901105254</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45258921229835825</v>
+        <v>0.31087479273302454</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61313100482383487</v>
+        <v>0.66647814257133564</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43901224195520827</v>
+        <v>0.21296724860247873</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97883513431643721</v>
+        <v>0.40209677384531906</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12576255562563432</v>
+        <v>0.96391437969240301</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65452622300707675</v>
+        <v>0.93369902553596951</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2242724438918615E-2</v>
+        <v>0.24005783873256392</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="1"/>
-        <v>8.2104215831736993E-2</v>
+        <v>0.49988631023124497</v>
       </c>
       <c r="P5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55842678756973618</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+        <v>0.44508604272857966</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51390793144147373</v>
+        <v>0.35059004514072234</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4091779467991209</v>
+        <v>3.2134531689871682E-2</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34645773975330674</v>
+        <v>0.52383051593966623</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54839451798230909</v>
+        <v>0.19977866123483345</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73492462366205213</v>
+        <v>0.48111078867014478</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25621870464507079</v>
+        <v>0.67563841952694315</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32958065739809228</v>
+        <v>0.55097430957974425</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67914136750715925</v>
+        <v>0.86047510984981734</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89025219638538022</v>
+        <v>0.61853436591705557</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="1"/>
-        <v>5.0346679908574776E-2</v>
+        <v>7.89024459319555E-2</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78348885277914793</v>
+        <v>0.75495210033843152</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="1"/>
-        <v>9.1309542194840221E-2</v>
+        <v>0.45994701762869294</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92339628085382275</v>
+        <v>0.63275287608164132</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23245480197181634</v>
+        <v>0.90507339807336662</v>
       </c>
       <c r="P6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18040882024948834</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+        <v>5.4589544804123924E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84176901506719604</v>
+        <v>3.1291033686317804E-2</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7248167396443066</v>
+        <v>0.84414193558287753</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59526864238610355</v>
+        <v>0.34463939164536139</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15563216340646457</v>
+        <v>0.39888869083486544</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79717133523769323</v>
+        <v>0.57137317835800561</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63343851728483869</v>
+        <v>0.3968435314415738</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22745507878524618</v>
+        <v>0.81141075699755427</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66641471068839186</v>
+        <v>0.68742826654761835</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55226268004874546</v>
+        <v>0.91972390759156197</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5908095594661219</v>
+        <v>0.99869748327958907</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62000586335148078</v>
+        <v>0.20775974640594819</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16510841240492502</v>
+        <v>0.65962155674614609</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5893173074934568E-2</v>
+        <v>0.5975294740184951</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41487159441838128</v>
+        <v>0.81854013651035384</v>
       </c>
       <c r="P7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41812502229666382</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+        <v>0.37140739599719141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68112712067710324</v>
+        <v>0.26383043007934048</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31626107611680632</v>
+        <v>0.24223766081536857</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57465309550247556</v>
+        <v>0.6491336008047538</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48115552927341798</v>
+        <v>0.93059385267421579</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36111877808543535</v>
+        <v>0.53164320760199979</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32350790592603407</v>
+        <v>0.84440782345869192</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67877262113315961</v>
+        <v>0.14700272592638741</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91080530725973863</v>
+        <v>0.88297575721577348</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71085668009478975</v>
+        <v>0.72014645602645444</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74785591249944128</v>
+        <v>0.32612844164715904</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33354871591441226</v>
+        <v>0.48024740782089725</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73956227449955092</v>
+        <v>0.18907605857024612</v>
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7998957162156834E-2</v>
+        <v>8.3500726460079555E-3</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="1"/>
-        <v>4.206540764478528E-2</v>
+        <v>0.68974509869528444</v>
       </c>
       <c r="P8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83670456253987857</v>
+        <v>0.34196832887891027</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="2">
+        <v>30522</v>
+      </c>
+      <c r="E13">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="12:22" x14ac:dyDescent="0.3">
+      <c r="L18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="12:22" x14ac:dyDescent="0.3">
+      <c r="L19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="12:22" x14ac:dyDescent="0.3">
+      <c r="R21" t="s">
+        <v>40</v>
+      </c>
+      <c r="S21" t="s">
+        <v>41</v>
+      </c>
+      <c r="T21" t="s">
+        <v>42</v>
+      </c>
+      <c r="U21" t="s">
+        <v>28</v>
+      </c>
+      <c r="V21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="12:22" x14ac:dyDescent="0.3">
+      <c r="N25" t="s">
+        <v>30</v>
+      </c>
+      <c r="O25" t="s">
+        <v>31</v>
+      </c>
+      <c r="P25" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1043,63 +1265,63 @@
       </c>
       <c r="B2">
         <f ca="1">RAND()</f>
-        <v>0.19800698953157214</v>
+        <v>0.16794708820587367</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:P3" ca="1" si="0">RAND()</f>
-        <v>0.49727305260016741</v>
+        <v>0.19166394084896765</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81280414931711842</v>
+        <v>0.16723931961553329</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30494184394971047</v>
+        <v>4.2744833959448836E-2</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18455402687754485</v>
+        <v>0.19170447514387756</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6188433026749576E-2</v>
+        <v>0.70636909369139622</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33083879484364409</v>
+        <v>0.45023413850045246</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13173127515216976</v>
+        <v>0.95340395148303592</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86193873181496916</v>
+        <v>0.75827014445679308</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85783059771729409</v>
+        <v>5.6928747739671715E-2</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.369345246267335</v>
+        <v>0.29019432917853716</v>
       </c>
       <c r="M2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19762997227835366</v>
+        <v>0.41741998402260161</v>
       </c>
       <c r="N2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67754377141167244</v>
+        <v>0.83262755426248103</v>
       </c>
       <c r="O2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52351661052790632</v>
+        <v>0.32311402358018493</v>
       </c>
       <c r="P2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26486659462000883</v>
+        <v>0.9022491971226323</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -1108,63 +1330,63 @@
       </c>
       <c r="B3">
         <f ca="1">RAND()</f>
-        <v>0.55734533702585043</v>
+        <v>0.92200682778488829</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26266713667627384</v>
+        <v>0.25096086272806228</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1918649353846158</v>
+        <v>0.18029995722014891</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34542722203756648</v>
+        <v>0.81938068044191936</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70872693916560658</v>
+        <v>0.17285211209996354</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50003723399118971</v>
+        <v>0.2364377525451139</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76557232982880508</v>
+        <v>0.33065475841945147</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80646063082123176</v>
+        <v>0.40345939003212183</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5248084755227147</v>
+        <v>0.84124296881885297</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24627374430192617</v>
+        <v>0.98686270684203481</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27226790716147642</v>
+        <v>0.97456972632415695</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66115166639418832</v>
+        <v>0.68125207445100822</v>
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80679907766951287</v>
+        <v>0.36662504683071884</v>
       </c>
       <c r="O3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68813135066923203</v>
+        <v>0.53647688712591091</v>
       </c>
       <c r="P3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43167918503881109</v>
+        <v>0.54900428008286484</v>
       </c>
     </row>
   </sheetData>
